--- a/data_processing/2024/data/transmission_measurements_carbon.xlsx
+++ b/data_processing/2024/data/transmission_measurements_carbon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARPA-E\Documents\GitHub\relozwall\data_processing\2024\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A08503-D07E-4DA0-978C-BC06DC8A20D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A90CFF-CF40-7642-BC24-D8AA34ABAA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED75ABB6-2E73-4136-9507-EBE78931EF6C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{ED75ABB6-2E73-4136-9507-EBE78931EF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="measurements" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Clean slide signal (V)</t>
   </si>
@@ -176,12 +176,18 @@
   </si>
   <si>
     <t>in_report</t>
+  </si>
+  <si>
+    <t>R3N41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -270,6 +276,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -606,33 +616,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E2D066-04B8-431D-9940-C182B0E8F5EB}">
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.5" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -718,7 +728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -816,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -914,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1012,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1208,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1306,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1502,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1600,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1698,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1796,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1894,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1992,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2188,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2384,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2577,6 +2587,99 @@
         <v>1.2E-2</v>
       </c>
       <c r="AB20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <f>1.45+0.0004</f>
+        <v>1.4503999999999999</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E23">
+        <v>1.45</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G23">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" ref="I23" si="81">E23-G23</f>
+        <v>1.4615</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23" si="82">SQRT(SUMSQ(F23,H23))</f>
+        <v>2.000399960007998E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23" si="83">C23-G23</f>
+        <v>1.4619</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23" si="84">SQRT(SUMSQ(D23,H23))</f>
+        <v>2.000399960007998E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23" si="85">I23/K23</f>
+        <v>0.9997263834735618</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23" si="86">1-M23</f>
+        <v>2.7361652643820289E-4</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23" si="87">-LOG(M23)</f>
+        <v>1.188464075018113E-4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23" si="88">SQRT(SUMSQ(J23/I23,L23/K23))</f>
+        <v>1.935412761208807E-2</v>
+      </c>
+      <c r="Q23">
+        <f>ROUND(O23*10000000/'absorption coefficient'!$B$2,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="R23">
+        <f>ROUND(ABS(Q23)*SQRT(SUMSQ(IF(O23&gt;0,P23/O23,0),'absorption coefficient'!$B$3/'absorption coefficient'!$B$2)),3)</f>
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="S23">
+        <v>30</v>
+      </c>
+      <c r="T23">
+        <v>5.606110084</v>
+      </c>
+      <c r="V23" s="9">
+        <f>ROUND(Q23/T23,3)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" ref="W23" si="89">ROUND(ABS(R23/T23),2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X23">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="Y23">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="Z23">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AA23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AB23" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2592,15 +2695,15 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2608,7 +2711,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2616,7 +2719,7 @@
         <v>49100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2643,7 +2746,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <f>B3/B2</f>
+        <v>0.29938900203665986</v>
+      </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
@@ -2676,9 +2783,9 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="13:17" x14ac:dyDescent="0.2">
       <c r="M1" t="s">
         <v>25</v>
       </c>
@@ -2695,7 +2802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="13:17" x14ac:dyDescent="0.2">
       <c r="M2" t="e">
         <f>AVERAGE(J:J)</f>
         <v>#DIV/0!</v>
@@ -2723,18 +2830,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2870,6 +2977,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB8135A-3467-434D-A79E-E12735EE4FB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF177DC-A263-4BA6-BD50-9A09D922A15B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="78187c3c-08d0-445e-b166-244fd45ce62e"/>
@@ -2881,14 +2996,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB8135A-3467-434D-A79E-E12735EE4FB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
